--- a/Icaffe_Tracker.xlsx
+++ b/Icaffe_Tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
   <si>
     <t>MODULES</t>
   </si>
@@ -323,7 +323,16 @@
     <t>GST Invoice-&gt;Transport</t>
   </si>
   <si>
-    <t>GST Invoice-&gt;Other</t>
+    <t>GST Invoice-&gt;Other Invoice</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Other Invoice&gt;Search</t>
+  </si>
+  <si>
+    <t>Other_Invoice</t>
+  </si>
+  <si>
+    <t>OtherInvoice_Search</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,19 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -593,9 +596,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -606,88 +606,86 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -999,12 +997,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,852 +1025,852 @@
     <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="52" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+    <row r="2" spans="1:19" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="39">
         <v>68</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="39">
         <v>53</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="40">
         <v>15</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45">
+      <c r="G2" s="39"/>
+      <c r="H2" s="40">
         <v>15</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="38">
         <v>15</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="46">
+      <c r="J2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="41">
         <v>45873</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="42">
         <v>45999</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="49" t="str">
+      <c r="Q2" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Shipper!A1","Go to Shipper")</f>
         <v>Go to Shipper</v>
       </c>
-      <c r="R2" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="51">
+      <c r="R2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="46">
         <v>46027</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="39">
         <v>10</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="40">
         <v>9</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="40">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="28">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="38">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="J3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="41">
         <v>45877</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="42">
         <v>45882</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="16" t="str">
+      <c r="Q3" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Shipper_OtherDetails!A1","Go to Shipper_OtherDetails")</f>
         <v>Go to Shipper_OtherDetails</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="20">
+      <c r="R3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="46">
         <v>46027</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="39">
         <v>30</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="40">
         <v>24</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="40">
         <v>6</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="28">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="38">
         <v>6</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="15">
+      <c r="J4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="41">
         <v>45880</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="42">
         <v>45908</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="16" t="str">
+      <c r="Q4" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Shipper_ContactDeteails!A1","Go to Shipper_ContactDeteails")</f>
         <v>Go to Shipper_ContactDeteails</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="20">
+      <c r="R4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="46">
         <v>46027</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="39">
         <v>2</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="14">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39">
         <v>2</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="40">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="15">
+      <c r="I5" s="38"/>
+      <c r="J5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="41">
         <v>45873</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="16" t="str">
+      <c r="Q5" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Shipper!A1","Go to Shipper")</f>
         <v>Go to Shipper</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="20">
+      <c r="R5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="46">
         <v>46027</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="38">
         <v>44</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="38">
         <v>36</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="38">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="38">
         <v>8</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="31">
+      <c r="J6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="47">
         <v>45882</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="42">
         <v>45911</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="16" t="str">
+      <c r="Q6" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Consignee!A1","Go to Consignee")</f>
         <v>Go to Consignee</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="R6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="46">
         <v>46027</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="38">
         <v>56</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="38">
         <v>51</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="F7" s="38">
+        <v>5</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <v>5</v>
+      </c>
+      <c r="I7" s="38">
+        <v>5</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="41">
         <v>45889</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="42">
         <v>45910</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="16" t="str">
+      <c r="Q7" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]Sub_Agent!A1","Go to Sub_Agent")</f>
         <v>Go to Sub_Agent</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="20">
+      <c r="R7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="46">
         <v>46029</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="38">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="38">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="38">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="38">
         <v>10</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="J8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="41">
         <v>45899</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="42">
         <v>45910</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="4" t="s">
+      <c r="O8" s="49"/>
+      <c r="P8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]SubAgent_ContactDetails!A1","Go to SubAgent_ContactDetails")</f>
         <v>Go to SubAgent_ContactDetails</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="20">
+      <c r="R8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="46">
         <v>46029</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="38">
         <v>51</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="38">
         <v>38</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="38">
         <v>13</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38">
         <v>13</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="38">
         <v>13</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="15">
+      <c r="J9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="41">
         <v>45902</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="42">
         <v>45923</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="4" t="s">
+      <c r="O9" s="49"/>
+      <c r="P9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]OverSeas_Agent!A1","Go to OverSeas_Agent")</f>
         <v>Go to OverSeas_Agent</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="20">
+      <c r="R9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="46">
         <v>46029</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="38">
         <v>36</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="38">
         <v>28</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="38">
         <v>8</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38">
         <v>8</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="38">
         <v>8</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="42">
         <v>45910</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="4" t="s">
+      <c r="O10" s="49"/>
+      <c r="P10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="16" t="str">
+      <c r="Q10" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]OverSeasAgent_ContactDetails!A1","Go to OverSeasAgent_ContactDetails")</f>
         <v>Go to OverSeasAgent_ContactDetails</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="20">
+      <c r="R10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="46">
         <v>46029</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="38">
         <v>2</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="38">
         <v>2</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="I11" s="38"/>
+      <c r="J11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="41">
         <v>45902</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="16" t="str">
+      <c r="Q11" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]OverSeas_Agent!A1","Go to OverSeas_Agent")</f>
         <v>Go to OverSeas_Agent</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="20">
+      <c r="R11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="46">
         <v>46029</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="38">
         <v>64</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="38">
         <v>50</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="38">
         <v>14</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38">
         <v>14</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="38">
         <v>14</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="J12" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="41">
         <v>45906</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="42">
         <v>45924</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]ShipLine!A1","Go to ShipLine")</f>
         <v>Go to ShipLine</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="20">
+      <c r="R12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="46">
         <v>46030</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="38">
         <v>36</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="38">
         <v>27</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="38">
         <v>9</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38">
         <v>9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="38">
         <v>9</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="15">
+      <c r="J13" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="41">
         <v>45911</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="42">
         <v>45924</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="4" t="s">
+      <c r="O13" s="49"/>
+      <c r="P13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="16" t="str">
+      <c r="Q13" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]ShipLine_ContactDetails!A1","Go to ShipLine_ContactDetails")</f>
         <v>Go to ShipLine_ContactDetails</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="20">
+      <c r="R13" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="46">
         <v>46030</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="38">
         <v>41</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="38">
         <v>37</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="38">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="38">
         <v>4</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="J14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="41">
         <v>45912</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="42">
         <v>45924</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="16" t="str">
+      <c r="Q14" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]IATA_Agent!A1","Go to IATA_Agent")</f>
         <v>Go to IATA_Agent</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="20">
+      <c r="R14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="46">
         <v>46030</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="38">
         <v>34</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="38">
         <v>26</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="38">
         <v>8</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38">
         <v>8</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="38">
         <v>8</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="15">
+      <c r="J15" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="41">
         <v>45915</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="42">
         <v>45924</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="4" t="s">
+      <c r="O15" s="49"/>
+      <c r="P15" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="44" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Masters Test Cases.xlsx]IATAAgent_ContactDetails!A1","Go to IATAAgent_ContactDetails")</f>
         <v>Go to IATAAgent_ContactDetails</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="20">
+      <c r="R15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="46">
         <v>46030</v>
       </c>
     </row>
@@ -1908,14 +1906,14 @@
       <c r="K16" s="15">
         <v>45922</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1926,7 +1924,7 @@
       <c r="R16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S16" s="21"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1938,20 +1936,20 @@
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="30">
         <v>124</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <v>102</v>
       </c>
       <c r="F17" s="14">
         <v>22</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36">
+      <c r="G17" s="30"/>
+      <c r="H17" s="30">
         <v>22</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="30">
         <v>1</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -1960,25 +1958,25 @@
       <c r="K17" s="15">
         <v>45929</v>
       </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="39" t="str">
+      <c r="Q17" s="33" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]OverseasAgent_InwardRCM!A1","Go to OverseasAgent_InwardRCM")</f>
         <v>Go to OverseasAgent_InwardRCM</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="21"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1993,15 +1991,15 @@
       <c r="D18" s="14">
         <v>297</v>
       </c>
-      <c r="E18" s="36">
-        <v>248</v>
+      <c r="E18" s="30">
+        <v>246</v>
       </c>
       <c r="F18" s="14">
-        <v>49</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30">
+        <v>51</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -2012,23 +2010,23 @@
       <c r="K18" s="15">
         <v>45941</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="29" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="39" t="str">
+      <c r="Q18" s="33" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]ServiceInvoice!A1","Go to  ServiceInvoice")</f>
         <v>Go to  ServiceInvoice</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="21"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2078,7 +2076,7 @@
       <c r="R19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="21"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2112,14 +2110,14 @@
       <c r="K20" s="15">
         <v>46006</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="29"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="25" t="s">
         <v>78</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -2132,7 +2130,7 @@
       <c r="R20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="21"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -2162,14 +2160,14 @@
       <c r="K21" s="15">
         <v>46006</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="4" t="s">
         <v>34</v>
       </c>
@@ -2180,7 +2178,7 @@
       <c r="R21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="21"/>
+      <c r="S21" s="20"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -2230,7 +2228,7 @@
       <c r="R22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="21"/>
+      <c r="S22" s="20"/>
     </row>
     <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -2269,7 +2267,7 @@
       <c r="N23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="24" t="s">
         <v>80</v>
       </c>
       <c r="P23" s="10" t="s">
@@ -2282,7 +2280,7 @@
       <c r="R23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="21"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -2321,7 +2319,7 @@
       <c r="N24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="25" t="s">
         <v>81</v>
       </c>
       <c r="P24" s="10" t="s">
@@ -2334,7 +2332,7 @@
       <c r="R24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="21"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -2373,7 +2371,7 @@
       <c r="N25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="24" t="s">
         <v>82</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -2386,7 +2384,7 @@
       <c r="R25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="21"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -2475,7 +2473,7 @@
       <c r="N27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="24" t="s">
         <v>88</v>
       </c>
       <c r="P27" s="6" t="s">
@@ -2534,7 +2532,7 @@
       </c>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2544,12 +2542,22 @@
       <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="18">
+        <v>205</v>
+      </c>
+      <c r="E29" s="6">
+        <v>161</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44</v>
+      </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="6">
+        <v>44</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
       <c r="J29" s="14" t="s">
         <v>5</v>
       </c>
@@ -2559,20 +2567,70 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="6" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="16" t="str">
-        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]TransportInvoice_Print!A1","Go to  TransportInvoice_Print")</f>
-        <v>Go to  TransportInvoice_Print</v>
+        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]Other_Invoice!A1","Go to  Other_Invoice")</f>
+        <v>Go to  Other_Invoice</v>
       </c>
       <c r="R29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="6">
+        <v>51</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>6</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="50">
+        <v>46066</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="51" t="str">
+        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]OtherInvoice_Search!A1","Go to  OtherInvoice_Search")</f>
+        <v>Go to  OtherInvoice_Search</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Icaffe_Tracker.xlsx
+++ b/Icaffe_Tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="101">
   <si>
     <t>MODULES</t>
   </si>
@@ -311,28 +311,46 @@
     <t>GST Invoice-&gt;Transport-&gt;Print</t>
   </si>
   <si>
+    <t>(this bug ID is used because the same issue occurs. - 630,632)</t>
+  </si>
+  <si>
+    <t>TransportInvoice_Print</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Transport</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Other Invoice</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Other Invoice&gt;Search</t>
+  </si>
+  <si>
+    <t>Other_Invoice</t>
+  </si>
+  <si>
+    <t>OtherInvoice_Search</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Other Invoice&gt;Print</t>
+  </si>
+  <si>
+    <t>OtherInvoice_Print</t>
+  </si>
+  <si>
+    <t>(this bug ID is used because the same issue occurs. - 713,719)</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>GST Invoice-&gt;Consultancy Invoice</t>
+  </si>
+  <si>
     <t>Working</t>
   </si>
   <si>
-    <t>(this bug ID is used because the same issue occurs. - 630,632)</t>
-  </si>
-  <si>
-    <t>TransportInvoice_Print</t>
-  </si>
-  <si>
-    <t>GST Invoice-&gt;Transport</t>
-  </si>
-  <si>
-    <t>GST Invoice-&gt;Other Invoice</t>
-  </si>
-  <si>
-    <t>GST Invoice-&gt;Other Invoice&gt;Search</t>
-  </si>
-  <si>
-    <t>Other_Invoice</t>
-  </si>
-  <si>
-    <t>OtherInvoice_Search</t>
+    <t>Consultancy_Invoice</t>
   </si>
 </sst>
 </file>
@@ -539,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,9 +700,8 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,12 +1014,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:S30"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1976,9 @@
         <v>45929</v>
       </c>
       <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="M17" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="N17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2197,11 +2216,11 @@
         <v>111</v>
       </c>
       <c r="F22" s="13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="8">
         <v>0</v>
@@ -2342,20 +2361,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="6">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" s="6">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="6">
         <v>0</v>
@@ -2474,10 +2493,10 @@
         <v>16</v>
       </c>
       <c r="O27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="Q27" s="16" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]TransportInvoice_Print!A1","Go to  TransportInvoice_Print")</f>
@@ -2521,7 +2540,7 @@
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="16" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]TransportInvoice_Print!A1","Go to  TransportInvoice_Print")</f>
@@ -2540,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="18">
         <v>205</v>
@@ -2571,7 +2590,7 @@
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="16" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]Other_Invoice!A1","Go to  Other_Invoice")</f>
@@ -2590,20 +2609,20 @@
         <v>35</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="6">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E30" s="6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I30" s="6">
         <v>0</v>
@@ -2611,19 +2630,19 @@
       <c r="J30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30" s="19">
         <v>46066</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>87</v>
+      <c r="N30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="51" t="str">
+      <c r="P30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="16" t="str">
         <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]OtherInvoice_Search!A1","Go to  OtherInvoice_Search")</f>
         <v>Go to  OtherInvoice_Search</v>
       </c>
@@ -2631,6 +2650,152 @@
         <v>11</v>
       </c>
       <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="10">
+        <v>52</v>
+      </c>
+      <c r="E31" s="10">
+        <v>32</v>
+      </c>
+      <c r="F31" s="10">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <v>20</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="19">
+        <v>46069</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="16" t="str">
+        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]OtherInvoice_Print!A1","Go to  OtherInvoice_Print")</f>
+        <v>Go to  OtherInvoice_Print</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="19">
+        <v>46069</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="50"/>
+      <c r="P32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="16" t="str">
+        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]OtherInvoice_Print!A1","Go to  OtherInvoice_Print")</f>
+        <v>Go to  OtherInvoice_Print</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="10">
+        <v>93</v>
+      </c>
+      <c r="E33" s="10">
+        <v>78</v>
+      </c>
+      <c r="F33" s="10">
+        <v>15</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <v>15</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="19">
+        <v>46070</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="16" t="str">
+        <f>HYPERLINK("[Icaffe_Export Sea_Operaton Test Cases.xlsx]Consultancy_Invoice!A1","Go to  Consultancy_Invoice")</f>
+        <v>Go to  Consultancy_Invoice</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
